--- a/Backend/oil_production_data.xlsx
+++ b/Backend/oil_production_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1564"/>
+  <dimension ref="A1:E1759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33283,6 +33283,4101 @@
         <v>85.04000000000001</v>
       </c>
     </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:22.824366</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>1045.99</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>2097.53</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>85.23</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:23.936218</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>1178.35</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>1944</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>81.45999999999999</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:25.057415</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>902.85</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>2121.29</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>80.77</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:26.173308</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>1142.32</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>2122.64</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>84.70999999999999</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:27.282658</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>976.35</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>1836.75</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:28.395393</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>1056.52</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>1833.66</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>89.31999999999999</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:29.523185</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>892.98</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>2106.21</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:30.640920</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>1023.08</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>1883.74</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>79.54000000000001</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:31.741356</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>868.05</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>2181.21</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>67.22</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:32.851004</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>1166.68</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>2199.26</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>69.09</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:33.973668</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>1190.79</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>2056.71</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>85.16</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:35.101596</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>1023.34</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>1962.37</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>61.16</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:36.207151</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>1157.1</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>1919.65</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>73.45</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:37.338888</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>1052.82</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>2178.02</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>82.28</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:38.451366</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>984.01</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>2108.12</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>88.59</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:39.565488</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>888.78</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>2001.88</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>79.56</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:40.673416</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>925</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>1940.9</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>85.09</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:41.791523</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>926.12</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>2135.35</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>68.77</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:42.906397</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>813.64</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>1960.38</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>65.28</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:44.023535</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>1129.65</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>2164.08</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>87.56999999999999</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:45.139118</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>1152.43</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>1837</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>89.53</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:46.246228</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>809.78</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>1986.18</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:47.369239</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>884.1900000000001</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>2082.95</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>83.64</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:48.489718</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>900.08</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>2125.68</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>66.66</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:49.604646</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>920.24</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>2183.63</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>85.59999999999999</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:50.724996</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>1128.79</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>1993.83</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>79.13</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:51.843021</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>977.85</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>2085.51</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:53.206992</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>843.85</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>2087.84</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>73.52</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:54.523060</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>889.54</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>2006.5</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>73.18000000000001</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:55.948761</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>1198.33</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>1835.74</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>75.73</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:57.357417</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>967.3200000000001</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>2173.42</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>62.68</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:21:58.792099</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>901.34</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>2086.43</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>60.26</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:00.074714</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>1144.74</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>1890.91</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>63.41</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:01.457372</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>1158.73</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>2121.02</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:02.840936</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>1142.43</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>1865.45</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>78.20999999999999</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:04.274714</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>1045.44</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>1843.73</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>85.64</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:05.609832</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>1162.52</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>1907.28</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:07.022597</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>987.91</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>1819.47</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>82.26000000000001</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:08.406027</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1603" t="n">
+        <v>1178.57</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>2022.86</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>65.56</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:09.822870</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1604" t="n">
+        <v>882.09</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>1894.22</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>73.02</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:11.233177</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1605" t="n">
+        <v>987.3200000000001</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>2085.01</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>65.05</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:12.624415</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1606" t="n">
+        <v>1131.12</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>1946.93</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:14.005491</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1607" t="n">
+        <v>1076.74</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>1860.44</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>88.09</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:15.441522</t>
+        </is>
+      </c>
+      <c r="B1608" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1608" t="n">
+        <v>1101.6</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>1941.11</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>74.47</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:16.753659</t>
+        </is>
+      </c>
+      <c r="B1609" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1609" t="n">
+        <v>1118.43</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>1917.25</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>67.29000000000001</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:18.123067</t>
+        </is>
+      </c>
+      <c r="B1610" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1610" t="n">
+        <v>1117.87</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>1862.68</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>71.44</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:19.557065</t>
+        </is>
+      </c>
+      <c r="B1611" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1611" t="n">
+        <v>802.75</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>2054.4</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:20.968153</t>
+        </is>
+      </c>
+      <c r="B1612" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1612" t="n">
+        <v>1091.88</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>1938.8</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>79.38</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:22.400988</t>
+        </is>
+      </c>
+      <c r="B1613" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1613" t="n">
+        <v>1175.23</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>1829.88</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>87.78</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:23.739589</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1614" t="n">
+        <v>1150.3</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>1900.42</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>65.48</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:25.083394</t>
+        </is>
+      </c>
+      <c r="B1615" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1615" t="n">
+        <v>1190.33</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>2056.01</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>70.27</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:26.503161</t>
+        </is>
+      </c>
+      <c r="B1616" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1616" t="n">
+        <v>944.22</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>2095.73</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:27.890771</t>
+        </is>
+      </c>
+      <c r="B1617" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1617" t="n">
+        <v>1183.04</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>2167.3</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>87.64</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:29.316211</t>
+        </is>
+      </c>
+      <c r="B1618" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1618" t="n">
+        <v>1061.29</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>2155.96</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>79.13</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:30.789949</t>
+        </is>
+      </c>
+      <c r="B1619" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1619" t="n">
+        <v>988</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>2031.31</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>65.33</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:32.181607</t>
+        </is>
+      </c>
+      <c r="B1620" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1620" t="n">
+        <v>986.21</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>1814.38</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>87.88</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:33.660987</t>
+        </is>
+      </c>
+      <c r="B1621" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1621" t="n">
+        <v>1095.75</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>1902.6</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>80.39</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:35.138874</t>
+        </is>
+      </c>
+      <c r="B1622" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1622" t="n">
+        <v>1194.26</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>1973.44</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>65.84</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:36.571799</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1623" t="n">
+        <v>913.36</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>1851.32</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>78.7</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:37.971984</t>
+        </is>
+      </c>
+      <c r="B1624" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1624" t="n">
+        <v>1134.28</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>1890.81</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>79.55</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:39.402556</t>
+        </is>
+      </c>
+      <c r="B1625" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1625" t="n">
+        <v>1128.23</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>2142.29</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>62.51</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:40.818176</t>
+        </is>
+      </c>
+      <c r="B1626" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1626" t="n">
+        <v>1121.9</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>1919.92</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>79.19</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:42.297805</t>
+        </is>
+      </c>
+      <c r="B1627" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1627" t="n">
+        <v>829.02</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>2173.31</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>81.73</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:43.592238</t>
+        </is>
+      </c>
+      <c r="B1628" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1628" t="n">
+        <v>1162.61</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>1842.42</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:44.956480</t>
+        </is>
+      </c>
+      <c r="B1629" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1629" t="n">
+        <v>911.98</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>1925.62</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:46.386138</t>
+        </is>
+      </c>
+      <c r="B1630" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1630" t="n">
+        <v>861.03</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>2020.25</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>77.01000000000001</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:47.846499</t>
+        </is>
+      </c>
+      <c r="B1631" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1631" t="n">
+        <v>934.01</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>2178</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>71.15000000000001</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:49.244692</t>
+        </is>
+      </c>
+      <c r="B1632" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1632" t="n">
+        <v>1187.7</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>2043.99</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>71.45999999999999</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:50.716147</t>
+        </is>
+      </c>
+      <c r="B1633" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1633" t="n">
+        <v>1048.39</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>1854.92</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>89.92</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:52.180309</t>
+        </is>
+      </c>
+      <c r="B1634" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1634" t="n">
+        <v>815.52</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>2100.11</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:53.690804</t>
+        </is>
+      </c>
+      <c r="B1635" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1635" t="n">
+        <v>1003.97</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>1812.62</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>65.59</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:55.099895</t>
+        </is>
+      </c>
+      <c r="B1636" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1636" t="n">
+        <v>1194.66</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>2044.63</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>82.54000000000001</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:56.582280</t>
+        </is>
+      </c>
+      <c r="B1637" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1637" t="n">
+        <v>832.88</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>2094.73</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>89.14</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:58.036305</t>
+        </is>
+      </c>
+      <c r="B1638" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1638" t="n">
+        <v>999.1900000000001</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>1803.01</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>60.07</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:22:59.545857</t>
+        </is>
+      </c>
+      <c r="B1639" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1639" t="n">
+        <v>895.22</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>1939.83</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>79.45999999999999</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:00.938759</t>
+        </is>
+      </c>
+      <c r="B1640" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1640" t="n">
+        <v>977.3200000000001</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>1810.93</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>80.84</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:02.372848</t>
+        </is>
+      </c>
+      <c r="B1641" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1641" t="n">
+        <v>839.27</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>1966.17</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>82.87</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:03.838845</t>
+        </is>
+      </c>
+      <c r="B1642" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1642" t="n">
+        <v>815.45</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>2127.66</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>80.38</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:05.243556</t>
+        </is>
+      </c>
+      <c r="B1643" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1643" t="n">
+        <v>984.8099999999999</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>2140.52</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>80.83</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:06.561101</t>
+        </is>
+      </c>
+      <c r="B1644" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1644" t="n">
+        <v>821.24</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>2100.08</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>82.52</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:08.021709</t>
+        </is>
+      </c>
+      <c r="B1645" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1645" t="n">
+        <v>950.28</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>2194.63</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>82.95999999999999</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:09.426508</t>
+        </is>
+      </c>
+      <c r="B1646" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1646" t="n">
+        <v>808.8</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>1947.28</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>64.17</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:10.878359</t>
+        </is>
+      </c>
+      <c r="B1647" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1647" t="n">
+        <v>953.9299999999999</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>1932.53</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>61.43</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:12.259753</t>
+        </is>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1648" t="n">
+        <v>1065.58</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>1871.15</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>86.59999999999999</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:13.731939</t>
+        </is>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1649" t="n">
+        <v>981.91</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>2183.23</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>62.07</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:15.132484</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1650" t="n">
+        <v>924.97</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>1813</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>81.95</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:16.538680</t>
+        </is>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1651" t="n">
+        <v>1022.53</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>1960.17</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>86.47</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:17.908777</t>
+        </is>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1652" t="n">
+        <v>848.5</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>2137.18</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>71.16</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:19.369703</t>
+        </is>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1653" t="n">
+        <v>1171.71</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>1940.37</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>87.28</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:20.812716</t>
+        </is>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1654" t="n">
+        <v>1110.51</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>1816.98</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>83.63</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:22.212272</t>
+        </is>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1655" t="n">
+        <v>968.65</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>1955.75</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>71.63</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:23.594549</t>
+        </is>
+      </c>
+      <c r="B1656" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1656" t="n">
+        <v>1074.11</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>1971.4</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:24.973078</t>
+        </is>
+      </c>
+      <c r="B1657" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1657" t="n">
+        <v>893.86</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>2087.84</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>61.13</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:26.434143</t>
+        </is>
+      </c>
+      <c r="B1658" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1658" t="n">
+        <v>1050.32</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>2149.93</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>66.92</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:27.702604</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1659" t="n">
+        <v>1164.72</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>1876.62</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>74.95</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:29.113596</t>
+        </is>
+      </c>
+      <c r="B1660" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1660" t="n">
+        <v>1029.76</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>2155.45</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>87.61</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:30.578608</t>
+        </is>
+      </c>
+      <c r="B1661" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1661" t="n">
+        <v>821.77</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>1934.6</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>68.18000000000001</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:32.003447</t>
+        </is>
+      </c>
+      <c r="B1662" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1662" t="n">
+        <v>969.61</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>2174.23</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>85.09</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:33.459431</t>
+        </is>
+      </c>
+      <c r="B1663" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1663" t="n">
+        <v>844</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>2014.07</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:34.923538</t>
+        </is>
+      </c>
+      <c r="B1664" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1664" t="n">
+        <v>1172.81</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>1924.99</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:36.437374</t>
+        </is>
+      </c>
+      <c r="B1665" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1665" t="n">
+        <v>1163.15</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>2085.69</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>87.45999999999999</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:37.876503</t>
+        </is>
+      </c>
+      <c r="B1666" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1666" t="n">
+        <v>970.08</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>1916.92</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>80.11</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:39.242188</t>
+        </is>
+      </c>
+      <c r="B1667" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1667" t="n">
+        <v>1111.22</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>2124.05</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>80.37</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:40.704854</t>
+        </is>
+      </c>
+      <c r="B1668" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1668" t="n">
+        <v>1022.23</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>2075.46</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>62.93</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:42.228079</t>
+        </is>
+      </c>
+      <c r="B1669" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1669" t="n">
+        <v>1113.52</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>1901.81</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>81.59</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:43.717583</t>
+        </is>
+      </c>
+      <c r="B1670" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1670" t="n">
+        <v>1057.83</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>1801.8</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>76.31</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:45.052486</t>
+        </is>
+      </c>
+      <c r="B1671" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1671" t="n">
+        <v>1062.98</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>1957.59</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:46.518416</t>
+        </is>
+      </c>
+      <c r="B1672" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1672" t="n">
+        <v>1191.22</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>1833.79</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>61.74</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:48.053138</t>
+        </is>
+      </c>
+      <c r="B1673" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1673" t="n">
+        <v>1193.56</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>2146.28</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>68.56</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:49.385800</t>
+        </is>
+      </c>
+      <c r="B1674" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1674" t="n">
+        <v>865.24</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>2003.71</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>81.01000000000001</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:50.817265</t>
+        </is>
+      </c>
+      <c r="B1675" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1675" t="n">
+        <v>1164.96</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>1969.2</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>65.02</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:52.259924</t>
+        </is>
+      </c>
+      <c r="B1676" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1676" t="n">
+        <v>925.46</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>1913.1</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:53.767944</t>
+        </is>
+      </c>
+      <c r="B1677" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1677" t="n">
+        <v>920.88</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>1905.32</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>62.64</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:55.146474</t>
+        </is>
+      </c>
+      <c r="B1678" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1678" t="n">
+        <v>838.67</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>1861.79</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>87.45</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:56.640033</t>
+        </is>
+      </c>
+      <c r="B1679" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1679" t="n">
+        <v>1085.44</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>2058.61</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>62.84</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:58.116048</t>
+        </is>
+      </c>
+      <c r="B1680" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1680" t="n">
+        <v>1066.71</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>1878.23</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:23:59.669299</t>
+        </is>
+      </c>
+      <c r="B1681" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1681" t="n">
+        <v>887.65</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>1919.65</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>78.97</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:01.066170</t>
+        </is>
+      </c>
+      <c r="B1682" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1682" t="n">
+        <v>897.38</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>2156.58</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>60.76</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:02.591875</t>
+        </is>
+      </c>
+      <c r="B1683" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1683" t="n">
+        <v>936.34</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>1820.04</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>62.47</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:03.955200</t>
+        </is>
+      </c>
+      <c r="B1684" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1684" t="n">
+        <v>838.09</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>1925.09</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:05.385278</t>
+        </is>
+      </c>
+      <c r="B1685" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1685" t="n">
+        <v>1192.54</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>1996.79</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>75.56999999999999</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:06.736914</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1686" t="n">
+        <v>1035.49</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>2005.61</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>89.78</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:08.259182</t>
+        </is>
+      </c>
+      <c r="B1687" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1687" t="n">
+        <v>947.25</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>2100.46</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>69.31</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:09.721469</t>
+        </is>
+      </c>
+      <c r="B1688" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1688" t="n">
+        <v>1128.51</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>1864.92</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>85.16</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:11.242607</t>
+        </is>
+      </c>
+      <c r="B1689" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1689" t="n">
+        <v>1029.32</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>2144.58</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>75.67</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:12.623950</t>
+        </is>
+      </c>
+      <c r="B1690" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1690" t="n">
+        <v>1054.73</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>2062.47</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>80.34999999999999</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:14.149057</t>
+        </is>
+      </c>
+      <c r="B1691" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1691" t="n">
+        <v>1128.15</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>2178.28</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>83.44</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:15.673108</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1692" t="n">
+        <v>952.25</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>1940.39</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>68.38</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:17.100071</t>
+        </is>
+      </c>
+      <c r="B1693" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1693" t="n">
+        <v>932.46</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>2035.46</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>87.34999999999999</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:18.608300</t>
+        </is>
+      </c>
+      <c r="B1694" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1694" t="n">
+        <v>1005.83</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>1872.88</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>76.81</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:20.099324</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1695" t="n">
+        <v>916.84</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>1859.7</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>74.34999999999999</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:21.624051</t>
+        </is>
+      </c>
+      <c r="B1696" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1696" t="n">
+        <v>885.33</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>1952.93</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>60.76</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:23.035489</t>
+        </is>
+      </c>
+      <c r="B1697" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1697" t="n">
+        <v>1054.86</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>2185.64</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>69.22</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:24.468234</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1698" t="n">
+        <v>984.3200000000001</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>2151.23</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>80.72</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:25.923138</t>
+        </is>
+      </c>
+      <c r="B1699" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1699" t="n">
+        <v>858.1</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>2162.56</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>67.28</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:27.465237</t>
+        </is>
+      </c>
+      <c r="B1700" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1700" t="n">
+        <v>945.52</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>2036.66</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>82.11</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:28.847959</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1701" t="n">
+        <v>831.71</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>1936.45</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>85.78</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:30.396948</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1702" t="n">
+        <v>1131.11</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>1983.09</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>84.16</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:31.882619</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1703" t="n">
+        <v>868.11</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>2195.95</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:33.417768</t>
+        </is>
+      </c>
+      <c r="B1704" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1704" t="n">
+        <v>823.37</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>1988.85</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>77.61</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:34.847952</t>
+        </is>
+      </c>
+      <c r="B1705" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1705" t="n">
+        <v>808.55</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>1851.57</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>85.61</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:36.385479</t>
+        </is>
+      </c>
+      <c r="B1706" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1706" t="n">
+        <v>1018.68</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>2086.21</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>87.79000000000001</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:37.848933</t>
+        </is>
+      </c>
+      <c r="B1707" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1707" t="n">
+        <v>997.75</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>1940.91</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>86.38</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:39.337859</t>
+        </is>
+      </c>
+      <c r="B1708" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1708" t="n">
+        <v>1046.17</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>2097.18</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>78.26000000000001</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:40.781599</t>
+        </is>
+      </c>
+      <c r="B1709" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1709" t="n">
+        <v>1195.27</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>1997.4</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>80.33</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:42.337510</t>
+        </is>
+      </c>
+      <c r="B1710" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1710" t="n">
+        <v>941.87</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>1956.77</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>71.53</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:43.826425</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1711" t="n">
+        <v>917.42</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>1837.64</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>70.88</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:45.242503</t>
+        </is>
+      </c>
+      <c r="B1712" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1712" t="n">
+        <v>947.02</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>1930.27</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>74.92</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:46.766541</t>
+        </is>
+      </c>
+      <c r="B1713" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1713" t="n">
+        <v>932.3200000000001</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>1840.44</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:48.241223</t>
+        </is>
+      </c>
+      <c r="B1714" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1714" t="n">
+        <v>1142.61</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>2094.71</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:49.784601</t>
+        </is>
+      </c>
+      <c r="B1715" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1715" t="n">
+        <v>1196.54</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>1959.81</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>69.06</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:51.227034</t>
+        </is>
+      </c>
+      <c r="B1716" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1716" t="n">
+        <v>1044.81</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>1826.59</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>68.67</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:52.768637</t>
+        </is>
+      </c>
+      <c r="B1717" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1717" t="n">
+        <v>833.04</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>2129.04</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>69.27</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:54.257129</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1718" t="n">
+        <v>807.08</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>1969.66</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>74.48999999999999</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:55.791356</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1719" t="n">
+        <v>1136.18</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>1879.51</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>85.73</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:57.243018</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1720" t="n">
+        <v>1081.35</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>2078.01</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>72.34999999999999</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:24:58.798960</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1721" t="n">
+        <v>1146.43</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>2052.41</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>65.22</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:00.318933</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1722" t="n">
+        <v>970.86</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>1913.84</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>75.12</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:01.738337</t>
+        </is>
+      </c>
+      <c r="B1723" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1723" t="n">
+        <v>1039.19</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>2092.53</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:03.281125</t>
+        </is>
+      </c>
+      <c r="B1724" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1724" t="n">
+        <v>896.49</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>1833.02</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>84.22</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:04.759556</t>
+        </is>
+      </c>
+      <c r="B1725" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1725" t="n">
+        <v>957.0599999999999</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>1930.41</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>76.56999999999999</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:06.262175</t>
+        </is>
+      </c>
+      <c r="B1726" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1726" t="n">
+        <v>958.04</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>1840.44</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>73.17</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:07.720414</t>
+        </is>
+      </c>
+      <c r="B1727" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1727" t="n">
+        <v>989.72</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>2153.3</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>78.39</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:09.242650</t>
+        </is>
+      </c>
+      <c r="B1728" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1728" t="n">
+        <v>1089.44</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>1829.39</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>68.48999999999999</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:10.657210</t>
+        </is>
+      </c>
+      <c r="B1729" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1729" t="n">
+        <v>827.33</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>2108.38</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>86.29000000000001</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:12.209620</t>
+        </is>
+      </c>
+      <c r="B1730" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1730" t="n">
+        <v>1022.69</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>1873.02</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>82.67</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:13.542695</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1731" t="n">
+        <v>1102.45</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>2177.05</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>81.72</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:15.033655</t>
+        </is>
+      </c>
+      <c r="B1732" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1732" t="n">
+        <v>1113.51</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>1827.19</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>67.22</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:16.334911</t>
+        </is>
+      </c>
+      <c r="B1733" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1733" t="n">
+        <v>1017.09</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>1822.06</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>85.55</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:17.638273</t>
+        </is>
+      </c>
+      <c r="B1734" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1734" t="n">
+        <v>808.22</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>2178.04</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:18.793176</t>
+        </is>
+      </c>
+      <c r="B1735" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1735" t="n">
+        <v>1017.37</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>2163.3</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>89.14</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:19.937172</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1736" t="n">
+        <v>1132.24</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>2151.56</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>87.54000000000001</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:21.073092</t>
+        </is>
+      </c>
+      <c r="B1737" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1737" t="n">
+        <v>862.23</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>2046.78</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>60.17</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:22.187219</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1738" t="n">
+        <v>822.27</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>1976.15</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>62.63</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:23.320556</t>
+        </is>
+      </c>
+      <c r="B1739" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1739" t="n">
+        <v>1003.46</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>1821.01</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>64.84</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:24.453782</t>
+        </is>
+      </c>
+      <c r="B1740" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1740" t="n">
+        <v>856.95</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>1818.58</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>77.28</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:25.587197</t>
+        </is>
+      </c>
+      <c r="B1741" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1741" t="n">
+        <v>882.6900000000001</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>2041.52</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>83.90000000000001</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:26.708657</t>
+        </is>
+      </c>
+      <c r="B1742" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1742" t="n">
+        <v>1105.65</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>2063.29</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:27.851025</t>
+        </is>
+      </c>
+      <c r="B1743" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1743" t="n">
+        <v>977.1799999999999</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>2122.18</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>75.66</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:28.978520</t>
+        </is>
+      </c>
+      <c r="B1744" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1744" t="n">
+        <v>802.51</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>2096.21</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>78.48999999999999</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:30.086827</t>
+        </is>
+      </c>
+      <c r="B1745" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1745" t="n">
+        <v>965.22</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>2134.23</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>71.36</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:31.202728</t>
+        </is>
+      </c>
+      <c r="B1746" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1746" t="n">
+        <v>834.6799999999999</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>2177.28</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>76.16</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:32.322143</t>
+        </is>
+      </c>
+      <c r="B1747" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1747" t="n">
+        <v>1101.57</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>1926.29</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>89.94</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:33.471094</t>
+        </is>
+      </c>
+      <c r="B1748" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1748" t="n">
+        <v>1189.92</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>2104.1</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>73.53</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:34.586738</t>
+        </is>
+      </c>
+      <c r="B1749" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1749" t="n">
+        <v>1138.77</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>2194.22</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>73.14</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:35.718246</t>
+        </is>
+      </c>
+      <c r="B1750" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1750" t="n">
+        <v>930.65</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>2047.28</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>76.79000000000001</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:36.855447</t>
+        </is>
+      </c>
+      <c r="B1751" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1751" t="n">
+        <v>1133.63</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>1982.48</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>62.84</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:37.969436</t>
+        </is>
+      </c>
+      <c r="B1752" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1752" t="n">
+        <v>1162.78</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>1837.68</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:39.345412</t>
+        </is>
+      </c>
+      <c r="B1753" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1753" t="n">
+        <v>1084.94</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>1845.79</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>86.64</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:40.704921</t>
+        </is>
+      </c>
+      <c r="B1754" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1754" t="n">
+        <v>840.78</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>1925.18</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>81.70999999999999</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:42.092492</t>
+        </is>
+      </c>
+      <c r="B1755" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1755" t="n">
+        <v>1051.27</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>1872.17</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>77.06999999999999</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:43.465590</t>
+        </is>
+      </c>
+      <c r="B1756" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1756" t="n">
+        <v>1135.91</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>77.03</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:44.936412</t>
+        </is>
+      </c>
+      <c r="B1757" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1757" t="n">
+        <v>828.33</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>1925.7</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:46.071629</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1758" t="n">
+        <v>1179.05</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>2012.79</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>63.09</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:25:47.212167</t>
+        </is>
+      </c>
+      <c r="B1759" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1759" t="n">
+        <v>1007.28</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>1801.41</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>74.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Backend/oil_production_data.xlsx
+++ b/Backend/oil_production_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1790"/>
+  <dimension ref="A1:E1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38029,6 +38029,1917 @@
         <v>72.95</v>
       </c>
     </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:52:51.423352</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1791" t="n">
+        <v>1022.81</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>1899.52</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>63.79</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:52:52.841970</t>
+        </is>
+      </c>
+      <c r="B1792" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1792" t="n">
+        <v>1175.88</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>2006.45</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>67.75</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:52:54.242446</t>
+        </is>
+      </c>
+      <c r="B1793" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1793" t="n">
+        <v>1117.47</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>1802.92</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>68.02</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:52:55.647242</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1794" t="n">
+        <v>1135.82</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>1998.14</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>88.83</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:52:57.150236</t>
+        </is>
+      </c>
+      <c r="B1795" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1795" t="n">
+        <v>893.52</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>1814.95</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>79.75</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:52:58.610428</t>
+        </is>
+      </c>
+      <c r="B1796" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1796" t="n">
+        <v>996.6799999999999</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>2050.7</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>75.23999999999999</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:00.043453</t>
+        </is>
+      </c>
+      <c r="B1797" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1797" t="n">
+        <v>1121.86</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>1821.46</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>70.19</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:01.410910</t>
+        </is>
+      </c>
+      <c r="B1798" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1798" t="n">
+        <v>1028.56</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>1851.44</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>70.76000000000001</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:02.793372</t>
+        </is>
+      </c>
+      <c r="B1799" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1799" t="n">
+        <v>1168.83</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>2023.72</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>83.40000000000001</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:04.209652</t>
+        </is>
+      </c>
+      <c r="B1800" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1800" t="n">
+        <v>1089.42</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>1952.01</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>87.48999999999999</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:05.526232</t>
+        </is>
+      </c>
+      <c r="B1801" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1801" t="n">
+        <v>1148.86</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>2059.43</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>87.70999999999999</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:06.874426</t>
+        </is>
+      </c>
+      <c r="B1802" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1802" t="n">
+        <v>966.5</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>1835.83</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>81.34999999999999</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:07.991757</t>
+        </is>
+      </c>
+      <c r="B1803" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1803" t="n">
+        <v>1071.63</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>1839.79</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>75.08</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:09.123493</t>
+        </is>
+      </c>
+      <c r="B1804" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1804" t="n">
+        <v>885.03</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>1923.67</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>88.29000000000001</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:10.254302</t>
+        </is>
+      </c>
+      <c r="B1805" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1805" t="n">
+        <v>1083.33</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>1952.36</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>89.70999999999999</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:11.374165</t>
+        </is>
+      </c>
+      <c r="B1806" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1806" t="n">
+        <v>1085.11</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>1894</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>81.37</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:12.497998</t>
+        </is>
+      </c>
+      <c r="B1807" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1807" t="n">
+        <v>1132.15</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>1831.71</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>87.56999999999999</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:13.642231</t>
+        </is>
+      </c>
+      <c r="B1808" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1808" t="n">
+        <v>1196.37</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>2113.85</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>80.78</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:14.771415</t>
+        </is>
+      </c>
+      <c r="B1809" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1809" t="n">
+        <v>1128.77</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>2066.11</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>82.84999999999999</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:15.899627</t>
+        </is>
+      </c>
+      <c r="B1810" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1810" t="n">
+        <v>988.7</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>1826.64</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>79.70999999999999</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:17.025388</t>
+        </is>
+      </c>
+      <c r="B1811" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1811" t="n">
+        <v>1193.71</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>1977.38</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>74.31999999999999</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:18.158175</t>
+        </is>
+      </c>
+      <c r="B1812" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1812" t="n">
+        <v>879.4299999999999</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>1870.07</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:19.275437</t>
+        </is>
+      </c>
+      <c r="B1813" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1813" t="n">
+        <v>1064.34</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>2042.21</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>77.83</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:20.397658</t>
+        </is>
+      </c>
+      <c r="B1814" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1814" t="n">
+        <v>1199.07</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>1911.2</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>80.95999999999999</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:21.609065</t>
+        </is>
+      </c>
+      <c r="B1815" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1815" t="n">
+        <v>833.24</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>2045.23</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>73.83</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:22.791500</t>
+        </is>
+      </c>
+      <c r="B1816" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1816" t="n">
+        <v>1085.85</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>2094.64</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>82.73</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:23.975289</t>
+        </is>
+      </c>
+      <c r="B1817" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1817" t="n">
+        <v>1002.34</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>1858.95</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>69.97</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:25.188857</t>
+        </is>
+      </c>
+      <c r="B1818" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1818" t="n">
+        <v>1173.24</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>1950.89</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>70.34</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:26.578148</t>
+        </is>
+      </c>
+      <c r="B1819" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1819" t="n">
+        <v>923.74</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>1854.53</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>87.20999999999999</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:27.958375</t>
+        </is>
+      </c>
+      <c r="B1820" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1820" t="n">
+        <v>1095.42</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>2145.65</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>79.95</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:29.371799</t>
+        </is>
+      </c>
+      <c r="B1821" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1821" t="n">
+        <v>1083.8</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>1804.25</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>68.25</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:30.809843</t>
+        </is>
+      </c>
+      <c r="B1822" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1822" t="n">
+        <v>935.24</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>2182.92</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>71.65000000000001</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:32.166938</t>
+        </is>
+      </c>
+      <c r="B1823" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1823" t="n">
+        <v>928.83</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>1985.33</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:33.530731</t>
+        </is>
+      </c>
+      <c r="B1824" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1824" t="n">
+        <v>1117.48</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>2052.36</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>77.84999999999999</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:34.880605</t>
+        </is>
+      </c>
+      <c r="B1825" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1825" t="n">
+        <v>985.27</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>1961.33</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>71.67</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:36.294071</t>
+        </is>
+      </c>
+      <c r="B1826" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1826" t="n">
+        <v>946.74</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>1977.42</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>78.02</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:37.729121</t>
+        </is>
+      </c>
+      <c r="B1827" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1827" t="n">
+        <v>859.24</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>1993.89</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>61.96</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:39.273641</t>
+        </is>
+      </c>
+      <c r="B1828" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1828" t="n">
+        <v>1093.55</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>2192.23</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>77.43000000000001</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:40.693696</t>
+        </is>
+      </c>
+      <c r="B1829" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1829" t="n">
+        <v>1069.49</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>1998.51</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>75.31</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:42.117367</t>
+        </is>
+      </c>
+      <c r="B1830" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1830" t="n">
+        <v>948.9299999999999</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>2176.11</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>87.13</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:43.516374</t>
+        </is>
+      </c>
+      <c r="B1831" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1831" t="n">
+        <v>945.97</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>1903.38</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>84.51000000000001</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:45.006841</t>
+        </is>
+      </c>
+      <c r="B1832" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1832" t="n">
+        <v>973.38</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>2039.29</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>84.54000000000001</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:46.420968</t>
+        </is>
+      </c>
+      <c r="B1833" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1833" t="n">
+        <v>1129.31</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>1858.4</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>67.61</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:47.896775</t>
+        </is>
+      </c>
+      <c r="B1834" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1834" t="n">
+        <v>1139.33</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>1801.22</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>82.31999999999999</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:49.322861</t>
+        </is>
+      </c>
+      <c r="B1835" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1835" t="n">
+        <v>939.5</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>1919.77</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>88.29000000000001</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:50.783350</t>
+        </is>
+      </c>
+      <c r="B1836" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1836" t="n">
+        <v>932.1799999999999</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>1860.05</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>62.14</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:52.213700</t>
+        </is>
+      </c>
+      <c r="B1837" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1837" t="n">
+        <v>1095.18</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>1912.04</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>68.98999999999999</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:53.716162</t>
+        </is>
+      </c>
+      <c r="B1838" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1838" t="n">
+        <v>1007.87</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>2148.08</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>69.20999999999999</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:55.133562</t>
+        </is>
+      </c>
+      <c r="B1839" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1839" t="n">
+        <v>987.85</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>2014.2</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>82.48999999999999</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:56.548655</t>
+        </is>
+      </c>
+      <c r="B1840" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1840" t="n">
+        <v>861.55</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>1819.98</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>75.61</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:57.897559</t>
+        </is>
+      </c>
+      <c r="B1841" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1841" t="n">
+        <v>980.49</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>1923.59</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>65.40000000000001</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:53:59.292326</t>
+        </is>
+      </c>
+      <c r="B1842" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1842" t="n">
+        <v>1004.4</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>1810.22</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>83.19</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:00.799441</t>
+        </is>
+      </c>
+      <c r="B1843" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1843" t="n">
+        <v>1016.68</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>2047.05</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>66.92</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:02.148436</t>
+        </is>
+      </c>
+      <c r="B1844" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1844" t="n">
+        <v>940.01</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>2193.69</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>70.45</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:03.579001</t>
+        </is>
+      </c>
+      <c r="B1845" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1845" t="n">
+        <v>913.4400000000001</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>2019.71</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>62.58</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:05.037910</t>
+        </is>
+      </c>
+      <c r="B1846" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1846" t="n">
+        <v>861.91</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>2169.05</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>85.90000000000001</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:06.419666</t>
+        </is>
+      </c>
+      <c r="B1847" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1847" t="n">
+        <v>939.51</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>1892.55</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>76.31999999999999</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:07.895084</t>
+        </is>
+      </c>
+      <c r="B1848" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1848" t="n">
+        <v>1026.37</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>2192</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>73.62</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:09.341554</t>
+        </is>
+      </c>
+      <c r="B1849" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1849" t="n">
+        <v>850.4299999999999</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>2196.75</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>82.45</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:10.762119</t>
+        </is>
+      </c>
+      <c r="B1850" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1850" t="n">
+        <v>1162.63</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>2105.38</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>88.95</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:11.899617</t>
+        </is>
+      </c>
+      <c r="B1851" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1851" t="n">
+        <v>857.0700000000001</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>2072.24</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:13.024654</t>
+        </is>
+      </c>
+      <c r="B1852" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1852" t="n">
+        <v>1127.31</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>2140.95</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>79.48999999999999</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:14.158638</t>
+        </is>
+      </c>
+      <c r="B1853" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1853" t="n">
+        <v>1143.74</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>1831.63</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>69.18000000000001</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:15.278722</t>
+        </is>
+      </c>
+      <c r="B1854" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1854" t="n">
+        <v>1119.18</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>2155.16</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>67.79000000000001</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:16.735985</t>
+        </is>
+      </c>
+      <c r="B1855" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1855" t="n">
+        <v>858.96</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>1987.01</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>69.44</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:18.209138</t>
+        </is>
+      </c>
+      <c r="B1856" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1856" t="n">
+        <v>849.03</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>2159.84</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>71.73</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:19.325693</t>
+        </is>
+      </c>
+      <c r="B1857" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1857" t="n">
+        <v>1174.17</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>1809.11</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:20.456156</t>
+        </is>
+      </c>
+      <c r="B1858" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1858" t="n">
+        <v>1122.56</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>1967.13</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>72.31999999999999</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:21.591650</t>
+        </is>
+      </c>
+      <c r="B1859" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1859" t="n">
+        <v>1043.33</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>2137.7</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>85.34999999999999</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:22.724744</t>
+        </is>
+      </c>
+      <c r="B1860" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1860" t="n">
+        <v>924.22</v>
+      </c>
+      <c r="D1860" t="n">
+        <v>1829.28</v>
+      </c>
+      <c r="E1860" t="n">
+        <v>82.98</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:23.858955</t>
+        </is>
+      </c>
+      <c r="B1861" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1861" t="n">
+        <v>831.23</v>
+      </c>
+      <c r="D1861" t="n">
+        <v>1861.37</v>
+      </c>
+      <c r="E1861" t="n">
+        <v>68.34</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:24.991073</t>
+        </is>
+      </c>
+      <c r="B1862" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1862" t="n">
+        <v>1006.17</v>
+      </c>
+      <c r="D1862" t="n">
+        <v>1976.31</v>
+      </c>
+      <c r="E1862" t="n">
+        <v>81.90000000000001</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:26.464927</t>
+        </is>
+      </c>
+      <c r="B1863" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1863" t="n">
+        <v>859.33</v>
+      </c>
+      <c r="D1863" t="n">
+        <v>2114.38</v>
+      </c>
+      <c r="E1863" t="n">
+        <v>67.81</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:27.590517</t>
+        </is>
+      </c>
+      <c r="B1864" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1864" t="n">
+        <v>832.28</v>
+      </c>
+      <c r="D1864" t="n">
+        <v>1939.21</v>
+      </c>
+      <c r="E1864" t="n">
+        <v>86.13</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:28.722928</t>
+        </is>
+      </c>
+      <c r="B1865" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1865" t="n">
+        <v>814.73</v>
+      </c>
+      <c r="D1865" t="n">
+        <v>2037.62</v>
+      </c>
+      <c r="E1865" t="n">
+        <v>82.77</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:29.853447</t>
+        </is>
+      </c>
+      <c r="B1866" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1866" t="n">
+        <v>1092.64</v>
+      </c>
+      <c r="D1866" t="n">
+        <v>2171.2</v>
+      </c>
+      <c r="E1866" t="n">
+        <v>77.47</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:30.991575</t>
+        </is>
+      </c>
+      <c r="B1867" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1867" t="n">
+        <v>1107.75</v>
+      </c>
+      <c r="D1867" t="n">
+        <v>2050.74</v>
+      </c>
+      <c r="E1867" t="n">
+        <v>79.18000000000001</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:32.361242</t>
+        </is>
+      </c>
+      <c r="B1868" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1868" t="n">
+        <v>1185.45</v>
+      </c>
+      <c r="D1868" t="n">
+        <v>2055.26</v>
+      </c>
+      <c r="E1868" t="n">
+        <v>81.53</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:33.778982</t>
+        </is>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1869" t="n">
+        <v>1006.98</v>
+      </c>
+      <c r="D1869" t="n">
+        <v>1962.7</v>
+      </c>
+      <c r="E1869" t="n">
+        <v>75.84999999999999</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:35.191627</t>
+        </is>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1870" t="n">
+        <v>1065.6</v>
+      </c>
+      <c r="D1870" t="n">
+        <v>2140.67</v>
+      </c>
+      <c r="E1870" t="n">
+        <v>60.95</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:36.595146</t>
+        </is>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1871" t="n">
+        <v>809.99</v>
+      </c>
+      <c r="D1871" t="n">
+        <v>1879.99</v>
+      </c>
+      <c r="E1871" t="n">
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:38.045647</t>
+        </is>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>WELL-1</t>
+        </is>
+      </c>
+      <c r="C1872" t="n">
+        <v>1031.63</v>
+      </c>
+      <c r="D1872" t="n">
+        <v>2169.68</v>
+      </c>
+      <c r="E1872" t="n">
+        <v>63.58</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:39.177414</t>
+        </is>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1873" t="n">
+        <v>809.14</v>
+      </c>
+      <c r="D1873" t="n">
+        <v>1971.53</v>
+      </c>
+      <c r="E1873" t="n">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:40.292179</t>
+        </is>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1874" t="n">
+        <v>1193.76</v>
+      </c>
+      <c r="D1874" t="n">
+        <v>2100.92</v>
+      </c>
+      <c r="E1874" t="n">
+        <v>65.06999999999999</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:41.417243</t>
+        </is>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>WELL-3</t>
+        </is>
+      </c>
+      <c r="C1875" t="n">
+        <v>892.76</v>
+      </c>
+      <c r="D1875" t="n">
+        <v>2003.44</v>
+      </c>
+      <c r="E1875" t="n">
+        <v>61.54</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:42.557698</t>
+        </is>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>WELL-4</t>
+        </is>
+      </c>
+      <c r="C1876" t="n">
+        <v>1125.18</v>
+      </c>
+      <c r="D1876" t="n">
+        <v>2063.53</v>
+      </c>
+      <c r="E1876" t="n">
+        <v>72.06</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:43.676297</t>
+        </is>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>WELL-5</t>
+        </is>
+      </c>
+      <c r="C1877" t="n">
+        <v>836.67</v>
+      </c>
+      <c r="D1877" t="n">
+        <v>2136.31</v>
+      </c>
+      <c r="E1877" t="n">
+        <v>88.34</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:44.793950</t>
+        </is>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1878" t="n">
+        <v>937.65</v>
+      </c>
+      <c r="D1878" t="n">
+        <v>1998.77</v>
+      </c>
+      <c r="E1878" t="n">
+        <v>72.40000000000001</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:45.975264</t>
+        </is>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1879" t="n">
+        <v>1195.04</v>
+      </c>
+      <c r="D1879" t="n">
+        <v>2047.93</v>
+      </c>
+      <c r="E1879" t="n">
+        <v>81.23</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:47.122943</t>
+        </is>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1880" t="n">
+        <v>963.09</v>
+      </c>
+      <c r="D1880" t="n">
+        <v>1988.48</v>
+      </c>
+      <c r="E1880" t="n">
+        <v>82.44</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881" t="inlineStr">
+        <is>
+          <t>2026-01-14T09:54:48.241094</t>
+        </is>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>WELL-2</t>
+        </is>
+      </c>
+      <c r="C1881" t="n">
+        <v>1165.32</v>
+      </c>
+      <c r="D1881" t="n">
+        <v>1986.09</v>
+      </c>
+      <c r="E1881" t="n">
+        <v>65.70999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
